--- a/sources/fact_extraction_viewpoint/environment-table19.xlsx
+++ b/sources/fact_extraction_viewpoint/environment-table19.xlsx
@@ -281,10 +281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="170" formatCode="0.0%;[Red]\-0.0%"/>
-    <numFmt numFmtId="171" formatCode="0%;[Red]\-0%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="0.0%;[Red]\-0.0%"/>
+    <numFmt numFmtId="167" formatCode="0%;[Red]\-0%"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -361,7 +361,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,21 +593,21 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,25 +625,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,58 +658,33 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -720,11 +701,27 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,23 +732,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1033,8 +1039,8 @@
   </sheetPr>
   <dimension ref="A1:F425"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A203" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="17.5"/>
@@ -1426,7 +1432,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="23">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
@@ -1449,33 +1455,33 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="88" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1485,10 +1491,10 @@
       <c r="E6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="89"/>
     </row>
     <row r="7" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="72" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1509,7 +1515,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>12</v>
       </c>
@@ -1528,7 +1534,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
@@ -1547,7 +1553,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="24" t="s">
         <v>14</v>
       </c>
@@ -1566,7 +1572,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
@@ -1585,7 +1591,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A12" s="67"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="27" t="s">
         <v>6</v>
       </c>
@@ -1607,7 +1613,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="72" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -1628,7 +1634,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A14" s="66"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -1647,7 +1653,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="21" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1672,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A16" s="66"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="24" t="s">
         <v>14</v>
       </c>
@@ -1685,7 +1691,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="21" t="str">
         <f>$B$11</f>
         <v>Breeding of GM or HM</v>
@@ -1705,7 +1711,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A18" s="67"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="27" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2213,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -2228,7 +2234,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="24" t="s">
         <v>12</v>
       </c>
@@ -2247,7 +2253,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A45" s="66"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="21" t="s">
         <v>13</v>
       </c>
@@ -2266,7 +2272,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A46" s="66"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="24" t="s">
         <v>14</v>
       </c>
@@ -2285,7 +2291,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A47" s="66"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="21" t="str">
         <f>$B$11</f>
         <v>Breeding of GM or HM</v>
@@ -2305,7 +2311,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A48" s="67"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="27" t="s">
         <v>6</v>
       </c>
@@ -2899,21 +2905,21 @@
       <c r="A82" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="63" t="s">
+      <c r="C82" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="64"/>
-      <c r="E82" s="65"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="83"/>
       <c r="F82" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="72.900000000000006" hidden="1" customHeight="1">
       <c r="A83" s="18"/>
-      <c r="B83" s="71"/>
+      <c r="B83" s="87"/>
       <c r="C83" s="19" t="s">
         <v>7</v>
       </c>
@@ -3406,7 +3412,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A108" s="66" t="s">
+      <c r="A108" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="21" t="s">
@@ -3427,7 +3433,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A109" s="66"/>
+      <c r="A109" s="72"/>
       <c r="B109" s="24" t="s">
         <v>12</v>
       </c>
@@ -3446,7 +3452,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A110" s="66"/>
+      <c r="A110" s="72"/>
       <c r="B110" s="21" t="s">
         <v>13</v>
       </c>
@@ -3465,7 +3471,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A111" s="66"/>
+      <c r="A111" s="72"/>
       <c r="B111" s="24" t="s">
         <v>14</v>
       </c>
@@ -3484,7 +3490,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A112" s="66"/>
+      <c r="A112" s="72"/>
       <c r="B112" s="21" t="str">
         <f>$B$11</f>
         <v>Breeding of GM or HM</v>
@@ -3504,7 +3510,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A113" s="67"/>
+      <c r="A113" s="73"/>
       <c r="B113" s="27" t="s">
         <v>6</v>
       </c>
@@ -4400,21 +4406,21 @@
       <c r="A165" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="70" t="s">
+      <c r="B165" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="63" t="s">
+      <c r="C165" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="64"/>
-      <c r="E165" s="65"/>
+      <c r="D165" s="82"/>
+      <c r="E165" s="83"/>
       <c r="F165" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="72.900000000000006" hidden="1" customHeight="1">
       <c r="A166" s="18"/>
-      <c r="B166" s="71"/>
+      <c r="B166" s="87"/>
       <c r="C166" s="19" t="s">
         <v>7</v>
       </c>
@@ -4427,7 +4433,7 @@
       <c r="F166" s="20"/>
     </row>
     <row r="167" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A167" s="66" t="s">
+      <c r="A167" s="72" t="s">
         <v>43</v>
       </c>
       <c r="B167" s="21" t="s">
@@ -4448,7 +4454,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A168" s="66"/>
+      <c r="A168" s="72"/>
       <c r="B168" s="24" t="s">
         <v>12</v>
       </c>
@@ -4467,7 +4473,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A169" s="66"/>
+      <c r="A169" s="72"/>
       <c r="B169" s="21" t="s">
         <v>13</v>
       </c>
@@ -4486,7 +4492,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A170" s="66"/>
+      <c r="A170" s="72"/>
       <c r="B170" s="24" t="s">
         <v>14</v>
       </c>
@@ -4505,7 +4511,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A171" s="66"/>
+      <c r="A171" s="72"/>
       <c r="B171" s="21" t="str">
         <f>$B$11</f>
         <v>Breeding of GM or HM</v>
@@ -4525,7 +4531,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A172" s="67"/>
+      <c r="A172" s="73"/>
       <c r="B172" s="27" t="s">
         <v>6</v>
       </c>
@@ -4787,7 +4793,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="20.25" hidden="1" customHeight="1">
-      <c r="A185" s="68" t="s">
+      <c r="A185" s="74" t="s">
         <v>46</v>
       </c>
       <c r="B185" s="21" t="s">
@@ -4808,7 +4814,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="15.9" hidden="1" customHeight="1">
-      <c r="A186" s="69"/>
+      <c r="A186" s="75"/>
       <c r="B186" s="24" t="s">
         <v>12</v>
       </c>
@@ -5149,7 +5155,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A203" s="66" t="s">
+      <c r="A203" s="72" t="s">
         <v>50</v>
       </c>
       <c r="B203" s="21" t="s">
@@ -5170,7 +5176,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A204" s="66"/>
+      <c r="A204" s="72"/>
       <c r="B204" s="24" t="s">
         <v>12</v>
       </c>
@@ -5189,7 +5195,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A205" s="66"/>
+      <c r="A205" s="72"/>
       <c r="B205" s="21" t="s">
         <v>13</v>
       </c>
@@ -5208,7 +5214,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A206" s="66"/>
+      <c r="A206" s="72"/>
       <c r="B206" s="24" t="s">
         <v>14</v>
       </c>
@@ -5227,7 +5233,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A207" s="66"/>
+      <c r="A207" s="72"/>
       <c r="B207" s="21" t="str">
         <f>$B$11</f>
         <v>Breeding of GM or HM</v>
@@ -5247,7 +5253,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A208" s="67"/>
+      <c r="A208" s="73"/>
       <c r="B208" s="27" t="s">
         <v>6</v>
       </c>
@@ -5269,7 +5275,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A209" s="66" t="s">
+      <c r="A209" s="72" t="s">
         <v>51</v>
       </c>
       <c r="B209" s="21" t="s">
@@ -5290,7 +5296,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A210" s="66"/>
+      <c r="A210" s="72"/>
       <c r="B210" s="24" t="s">
         <v>12</v>
       </c>
@@ -5309,7 +5315,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A211" s="66"/>
+      <c r="A211" s="72"/>
       <c r="B211" s="21" t="s">
         <v>13</v>
       </c>
@@ -5328,7 +5334,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A212" s="66"/>
+      <c r="A212" s="72"/>
       <c r="B212" s="24" t="s">
         <v>14</v>
       </c>
@@ -5347,7 +5353,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A213" s="66"/>
+      <c r="A213" s="72"/>
       <c r="B213" s="21" t="str">
         <f>$B$11</f>
         <v>Breeding of GM or HM</v>
@@ -5367,7 +5373,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A214" s="67"/>
+      <c r="A214" s="73"/>
       <c r="B214" s="27" t="s">
         <v>6</v>
       </c>
@@ -5451,7 +5457,7 @@
       <c r="F220" s="23"/>
     </row>
     <row r="221" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A221" s="88" t="s">
+      <c r="A221" s="76" t="s">
         <v>53</v>
       </c>
       <c r="B221" s="21" t="s">
@@ -5472,7 +5478,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A222" s="88"/>
+      <c r="A222" s="76"/>
       <c r="B222" s="24" t="s">
         <v>12</v>
       </c>
@@ -5491,7 +5497,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="15.9" customHeight="1">
-      <c r="A223" s="88"/>
+      <c r="A223" s="76"/>
       <c r="B223" s="21" t="s">
         <v>13</v>
       </c>
@@ -5510,7 +5516,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="18">
-      <c r="A224" s="88"/>
+      <c r="A224" s="76"/>
       <c r="B224" s="24" t="s">
         <v>14</v>
       </c>
@@ -5529,7 +5535,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="18">
-      <c r="A225" s="88"/>
+      <c r="A225" s="76"/>
       <c r="B225" s="21" t="str">
         <f>$B$11</f>
         <v>Breeding of GM or HM</v>
@@ -5549,7 +5555,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="18">
-      <c r="A226" s="89"/>
+      <c r="A226" s="77"/>
       <c r="B226" s="52" t="s">
         <v>54</v>
       </c>
@@ -5571,7 +5577,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="18" customHeight="1">
-      <c r="B227" s="86" t="s">
+      <c r="B227" s="70" t="s">
         <v>55</v>
       </c>
       <c r="C227" s="53">
@@ -5593,7 +5599,7 @@
     </row>
     <row r="228" spans="1:6" ht="18" customHeight="1">
       <c r="A228" s="54"/>
-      <c r="B228" s="86" t="s">
+      <c r="B228" s="70" t="s">
         <v>56</v>
       </c>
       <c r="C228" s="55">
@@ -5615,7 +5621,7 @@
     </row>
     <row r="229" spans="1:6" ht="18" customHeight="1">
       <c r="A229" s="57"/>
-      <c r="B229" s="86" t="s">
+      <c r="B229" s="70" t="s">
         <v>57</v>
       </c>
       <c r="C229" s="58">
@@ -5637,7 +5643,7 @@
     </row>
     <row r="230" spans="1:6" ht="18" customHeight="1">
       <c r="A230" s="57"/>
-      <c r="B230" s="87" t="s">
+      <c r="B230" s="71" t="s">
         <v>58</v>
       </c>
       <c r="C230" s="59">
@@ -6825,11 +6831,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A203:A208"/>
-    <mergeCell ref="A209:A214"/>
-    <mergeCell ref="A221:A226"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C82:E82"/>
     <mergeCell ref="C165:E165"/>
@@ -6840,6 +6841,11 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="B165:B166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="A209:A214"/>
+    <mergeCell ref="A221:A226"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.74803149606299202" right="0.511811023622047" top="0.69" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
